--- a/prep_and_checklists/Erica Samuels 50th Bday/Erica Samuels 50th Bday_2025-03-30_1.xlsx
+++ b/prep_and_checklists/Erica Samuels 50th Bday/Erica Samuels 50th Bday_2025-03-30_1.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Erica Samuels 50th Bday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF84A2-81A0-9E4E-960B-7E9EBF50F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B05176-F76A-984F-AE22-7484D97297D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>Erica Samuels 50th Bday 70 Guests 7:00 PM - 12:00 AM Friday, April 4, 2025</t>
   </si>
@@ -327,9 +340,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1 quart, see AM Prep</t>
-  </si>
-  <si>
-    <t>2 quarts, see AM Prep</t>
   </si>
   <si>
     <t>2 quarts</t>
@@ -387,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,29 +406,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,27 +485,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,661 +813,658 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="55.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="2" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E5" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="D45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="46" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="52" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="53" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="D46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="6" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="D57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="6" t="s">
+    <row r="58" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="D58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
